--- a/Chi-Test__b1(1 ).csv__b1(2 ).csv_.xlsx
+++ b/Chi-Test__b1(1 ).csv__b1(2 ).csv_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="317">
   <si>
     <t>Probability(0.05/0.01/0.001)</t>
   </si>
@@ -550,22 +550,22 @@
     <t>Age Group</t>
   </si>
   <si>
+    <t>21.61%</t>
+  </si>
+  <si>
     <t>39.95%</t>
   </si>
   <si>
     <t>38.44%</t>
   </si>
   <si>
-    <t>21.61%</t>
+    <t>23.26%</t>
   </si>
   <si>
     <t>36.71%</t>
   </si>
   <si>
     <t>40.03%</t>
-  </si>
-  <si>
-    <t>23.26%</t>
   </si>
   <si>
     <t>P5</t>
@@ -1296,13 +1296,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1372,32 +1372,8 @@
       <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1637,7 +1613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1685,7 +1661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1733,7 +1709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1781,7 +1757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +1805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1877,7 +1853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1925,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>86</v>
       </c>
